--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3914.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3914.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.497050134470713</v>
+        <v>1.994791030883789</v>
       </c>
       <c r="B1">
-        <v>1.933365192263775</v>
+        <v>2.362165927886963</v>
       </c>
       <c r="C1">
-        <v>2.942325310738446</v>
+        <v>2.478404760360718</v>
       </c>
       <c r="D1">
-        <v>8.181891041935362</v>
+        <v>3.148077011108398</v>
       </c>
       <c r="E1">
-        <v>1.484114742992613</v>
+        <v>2.23503303527832</v>
       </c>
     </row>
   </sheetData>
